--- a/AfDD_2024_Annex_Table_Tab36.xlsx
+++ b/AfDD_2024_Annex_Table_Tab36.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B610499C-0794-418B-BA7F-CAEE3BB20D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2BF0C7-6918-48BB-8457-E89465A67C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{FAC46CD4-00BD-47A3-81C2-39811A3A3944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F637E017-D2B0-4AD6-A139-87ED353F6D71}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333AAEE8-0EF7-4282-969C-B79D9038A9E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89FC52B-A507-4749-A35F-591D0D8FD29E}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23692,12 +23692,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4D0DB7C1-D5FE-4274-A979-647F0EDEBA3D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{B0760E4C-DD28-4781-8C51-638EE843073A}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{93831339-54A9-429E-8FB1-C473B2035889}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{A1D0065B-FA8D-4111-BC20-621D3ADA62B5}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{FEEA7102-9DBB-4D78-99A7-13AEEAA3ABA7}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{EB185959-DB03-460D-AF39-3710A323FB86}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{30E847D5-362F-4111-8E44-3E4D3791927C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9F6547C9-FD2A-4758-A1B8-BE8757C93A20}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0C1E894C-2549-4339-9903-F64E75BC8DFA}"/>
+    <hyperlink ref="B112" r:id="rId4" xr:uid="{80EDF0B1-4974-4362-A553-A16645967B7C}"/>
+    <hyperlink ref="B107" r:id="rId5" xr:uid="{4430AF7B-ED8E-4990-B6C7-18472F6BCD0A}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{B4C928D6-AD63-4F23-9BBA-E0C5911B2769}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab36.xlsx
+++ b/AfDD_2024_Annex_Table_Tab36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB2BF0C7-6918-48BB-8457-E89465A67C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8C76F8-B786-4B57-A0AF-A89B55D77471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F637E017-D2B0-4AD6-A139-87ED353F6D71}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{719BF991-2333-4FA7-934B-13969F3DED9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -1258,8 +1258,8 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F89FC52B-A507-4749-A35F-591D0D8FD29E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F30FB97-CFC7-4CCC-BD2E-72C512FB469A}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1587,7 +1587,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="71" width="12.42578125" style="76" bestFit="1" customWidth="1"/>
+    <col min="3" max="71" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23399,7 +23399,7 @@
       <c r="BS110" s="74"/>
     </row>
     <row r="111" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B111" s="77" t="s">
+      <c r="B111" s="76" t="s">
         <v>233</v>
       </c>
       <c r="C111" s="74"/>
@@ -23473,7 +23473,7 @@
       <c r="BS111" s="74"/>
     </row>
     <row r="112" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>230</v>
       </c>
       <c r="C112" s="74"/>
@@ -23692,12 +23692,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{30E847D5-362F-4111-8E44-3E4D3791927C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9F6547C9-FD2A-4758-A1B8-BE8757C93A20}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{0C1E894C-2549-4339-9903-F64E75BC8DFA}"/>
-    <hyperlink ref="B112" r:id="rId4" xr:uid="{80EDF0B1-4974-4362-A553-A16645967B7C}"/>
-    <hyperlink ref="B107" r:id="rId5" xr:uid="{4430AF7B-ED8E-4990-B6C7-18472F6BCD0A}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{B4C928D6-AD63-4F23-9BBA-E0C5911B2769}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{362EA0C9-6651-4DC0-89EA-4CC7C9A7FD64}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A1B83C95-D9C9-4B7E-B35D-5191643BD351}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92FFAAB7-47D1-4783-8F94-C8C6C224517F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{22DE54D1-1E63-4E4C-A35C-716E5BED07DE}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{6ED7E636-0F42-4F85-B421-80F747A9E879}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{7E3BE0BD-0ADC-4078-AA69-D8AC6EEA87D1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>

--- a/AfDD_2024_Annex_Table_Tab36.xlsx
+++ b/AfDD_2024_Annex_Table_Tab36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8C76F8-B786-4B57-A0AF-A89B55D77471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF30F531-F8DE-413F-8D5E-7E6344E8098C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{719BF991-2333-4FA7-934B-13969F3DED9E}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{DAAD8289-B524-4D75-A447-6F186E66972E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -1575,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F30FB97-CFC7-4CCC-BD2E-72C512FB469A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D91CDB05-EE8C-401F-8026-F71039F2A801}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23692,12 +23692,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{362EA0C9-6651-4DC0-89EA-4CC7C9A7FD64}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{A1B83C95-D9C9-4B7E-B35D-5191643BD351}"/>
-    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{92FFAAB7-47D1-4783-8F94-C8C6C224517F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{22DE54D1-1E63-4E4C-A35C-716E5BED07DE}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{6ED7E636-0F42-4F85-B421-80F747A9E879}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{7E3BE0BD-0ADC-4078-AA69-D8AC6EEA87D1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BF6EC6B7-F7F3-4F5A-B4E8-1407EAA7414C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{68F83D74-F77C-4FBD-8856-C685A58003FA}"/>
+    <hyperlink ref="B113" r:id="rId3" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{FC0D9696-7C99-4760-BF77-DA360EFD7DE1}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{42A5D7A6-F303-4134-BA15-DAFE86C8D496}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{C7EC4DC0-2C55-41AD-93D7-22E19F284233}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{3A0D0615-CBC3-454E-825D-A6C1BAD967C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
